--- a/sch_cht.xlsx
+++ b/sch_cht.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53D404C-EC4A-4CBD-819D-F971A7954827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56608F7A-AFB1-42ED-8E46-3185EE275447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="2625" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="7425" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sch" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="54">
   <si>
     <t>-</t>
   </si>
@@ -86,21 +86,12 @@
     <t>9Б</t>
   </si>
   <si>
-    <t>9В</t>
-  </si>
-  <si>
     <t>10Б</t>
   </si>
   <si>
     <t>11А</t>
   </si>
   <si>
-    <t>7А</t>
-  </si>
-  <si>
-    <t>8А</t>
-  </si>
-  <si>
     <t>8Б</t>
   </si>
   <si>
@@ -164,9 +155,6 @@
     <t>общество</t>
   </si>
   <si>
-    <t>10А</t>
-  </si>
-  <si>
     <t>информатика</t>
   </si>
   <si>
@@ -177,18 +165,41 @@
   </si>
   <si>
     <t>право</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>8Г</t>
+  </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>10A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,60 +413,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -765,7 +770,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="B1" sqref="B1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,68 +779,68 @@
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="G1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="8" t="s">
+      <c r="P1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -863,16 +868,16 @@
       <c r="H2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="I2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="M2" t="s">
@@ -910,271 +915,271 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="13" t="s">
+      <c r="I3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="14" t="s">
+      <c r="Q3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="13" t="s">
+      <c r="L4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="13" t="s">
+      <c r="O4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="13" t="s">
-        <v>52</v>
+      <c r="V4" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="13" t="s">
+      <c r="K5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="13" t="s">
+      <c r="M5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="13" t="s">
+      <c r="Q5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="T5" s="13" t="s">
+      <c r="S5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="V5" s="13" t="s">
-        <v>52</v>
+      <c r="V5" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="B6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="F6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="Q6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" s="13" t="s">
+      <c r="S6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1182,67 +1187,67 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="13" t="s">
+      <c r="N7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="13" t="s">
+      <c r="P7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="V7" s="13" t="s">
+      <c r="R7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1250,68 +1255,68 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="Q8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="V8" s="13" t="s">
-        <v>33</v>
+      <c r="T8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1342,7 +1347,7 @@
       <c r="I9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1351,102 +1356,102 @@
       <c r="L9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="13" t="s">
+      <c r="M9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="U9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="V9" s="13" t="s">
-        <v>40</v>
+      <c r="R9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="U10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="V10" s="11" t="s">
+      <c r="B10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9" t="s">
         <v>0</v>
       </c>
     </row>

--- a/sch_cht.xlsx
+++ b/sch_cht.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56608F7A-AFB1-42ED-8E46-3185EE275447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="7425" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="sch" sheetId="1" r:id="rId1"/>
@@ -18,41 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="74">
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>математика</t>
-  </si>
-  <si>
-    <t>русский</t>
-  </si>
-  <si>
-    <t>ОДНКР</t>
-  </si>
-  <si>
-    <t>геометрия</t>
-  </si>
-  <si>
-    <t>ИЗО</t>
-  </si>
-  <si>
-    <t>история</t>
-  </si>
-  <si>
-    <t>литература</t>
-  </si>
-  <si>
-    <t>алгебра</t>
-  </si>
-  <si>
-    <t>музыка</t>
-  </si>
-  <si>
-    <t>технология</t>
-  </si>
-  <si>
     <t>Урок</t>
   </si>
   <si>
@@ -104,69 +73,6 @@
     <t>6Г</t>
   </si>
   <si>
-    <t xml:space="preserve">история </t>
-  </si>
-  <si>
-    <t>английский     21</t>
-  </si>
-  <si>
-    <t>физкультура</t>
-  </si>
-  <si>
-    <t>биология</t>
-  </si>
-  <si>
-    <t>Физкультура</t>
-  </si>
-  <si>
-    <t>Рус. в совр.мире</t>
-  </si>
-  <si>
-    <t>Комп.грам</t>
-  </si>
-  <si>
-    <t>Инф.(группа О.Е.)</t>
-  </si>
-  <si>
-    <t>Вер. и стат.</t>
-  </si>
-  <si>
-    <t>Английский 37</t>
-  </si>
-  <si>
-    <t>география</t>
-  </si>
-  <si>
-    <t>литератупа</t>
-  </si>
-  <si>
-    <t>Ком.ан.текста</t>
-  </si>
-  <si>
-    <t>Родн.литер</t>
-  </si>
-  <si>
-    <t>Инф/англ</t>
-  </si>
-  <si>
-    <t>химия</t>
-  </si>
-  <si>
-    <t>общество</t>
-  </si>
-  <si>
-    <t>информатика</t>
-  </si>
-  <si>
-    <t>Английский</t>
-  </si>
-  <si>
-    <t>естествознание</t>
-  </si>
-  <si>
-    <t>право</t>
-  </si>
-  <si>
     <t>7A</t>
   </si>
   <si>
@@ -180,18 +86,187 @@
   </si>
   <si>
     <t>10A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">история/Баженова </t>
+  </si>
+  <si>
+    <t>математика/Толмачева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">история /Баженова </t>
+  </si>
+  <si>
+    <t>русский/Гарбузова</t>
+  </si>
+  <si>
+    <t>литература/Гарбузова</t>
+  </si>
+  <si>
+    <t>музыка/Розамаскин</t>
+  </si>
+  <si>
+    <t>русский/Петровская</t>
+  </si>
+  <si>
+    <t>литература/Петровская</t>
+  </si>
+  <si>
+    <t>математика/Кононенко</t>
+  </si>
+  <si>
+    <t>физкультура/Книга</t>
+  </si>
+  <si>
+    <t>общество/Бекжанова</t>
+  </si>
+  <si>
+    <t>право/Бекжанова</t>
+  </si>
+  <si>
+    <t>литература/Кушнерева</t>
+  </si>
+  <si>
+    <t>физкультура/Меселова</t>
+  </si>
+  <si>
+    <t>Физкультура/Меселова</t>
+  </si>
+  <si>
+    <t>ИЗО/Горявина</t>
+  </si>
+  <si>
+    <t>ОДНКР/Бекжанова</t>
+  </si>
+  <si>
+    <t>русски/Ким</t>
+  </si>
+  <si>
+    <t>русский/Ким</t>
+  </si>
+  <si>
+    <t>биология/Курочкина</t>
+  </si>
+  <si>
+    <t>химия/Курочкина</t>
+  </si>
+  <si>
+    <t>история/Скрыльникова</t>
+  </si>
+  <si>
+    <t>русский/Васильченко</t>
+  </si>
+  <si>
+    <t>Рус. в совр.мире/Васильченко</t>
+  </si>
+  <si>
+    <t>литература/Васильченко</t>
+  </si>
+  <si>
+    <t>Комп.грам/Толмачева</t>
+  </si>
+  <si>
+    <t>геометрия/Чаплыгина</t>
+  </si>
+  <si>
+    <t>алгебра/Чаплыгина</t>
+  </si>
+  <si>
+    <t>русский/Шауро</t>
+  </si>
+  <si>
+    <t>литература/Шауро</t>
+  </si>
+  <si>
+    <t>русский/Кушнерева</t>
+  </si>
+  <si>
+    <t>геометрия/Турищева</t>
+  </si>
+  <si>
+    <t>Вер. и стат./Турищева</t>
+  </si>
+  <si>
+    <t>алгебра/Турищева</t>
+  </si>
+  <si>
+    <t>география/Зименко</t>
+  </si>
+  <si>
+    <t>информатика/Паранько</t>
+  </si>
+  <si>
+    <t>литература/Ни</t>
+  </si>
+  <si>
+    <t>геометрия/Кононенко</t>
+  </si>
+  <si>
+    <t>Ком.ан.текста/Васильченко</t>
+  </si>
+  <si>
+    <t>литература/Колоткина</t>
+  </si>
+  <si>
+    <t>Родн.литер/Колоткина</t>
+  </si>
+  <si>
+    <t>история/Бекжанова</t>
+  </si>
+  <si>
+    <t>английский/Дзыгун/Гредякина</t>
+  </si>
+  <si>
+    <t>Английский/Гладкова/Грибовский</t>
+  </si>
+  <si>
+    <t>технология/Недбайлова/Шабалин</t>
+  </si>
+  <si>
+    <t>Инф/англ/Паранько/Дзыгун</t>
+  </si>
+  <si>
+    <t>Инф/англ/Паранько/Степаненко</t>
+  </si>
+  <si>
+    <t>Английский/Грибовский</t>
+  </si>
+  <si>
+    <t>Английский/Гладкова/Гредякина</t>
+  </si>
+  <si>
+    <t>естествознание/Курочкина</t>
+  </si>
+  <si>
+    <t>Инф.(группа О.Е.)/Паранько</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,7 +333,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -413,33 +487,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -451,16 +534,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -481,9 +561,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -521,9 +601,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,7 +638,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -593,7 +673,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -766,120 +846,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:V1"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="S1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="U1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:22" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="16" t="s">
+      <c r="J2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="M2" t="s">
         <v>0</v>
       </c>
@@ -911,415 +994,415 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>47</v>
+      <c r="Q3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="11" t="s">
+      <c r="G4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:22" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="11" t="s">
+      <c r="B5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="11" t="s">
+      <c r="K5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>48</v>
+      <c r="V5" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="11" t="s">
+      <c r="B6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="11" t="s">
+      <c r="E6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6" s="11" t="s">
+      <c r="F6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="11" t="s">
+      <c r="E7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" s="11" t="s">
+      <c r="G7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="V7" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="B8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="V8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1356,35 +1439,35 @@
       <c r="L9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="S9" s="11" t="s">
+      <c r="M9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>37</v>
+      <c r="N9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="V9" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1448,7 +1531,7 @@
       <c r="T10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="11" t="s">
         <v>0</v>
       </c>
       <c r="V10" s="9" t="s">
